--- a/Paramete Llist.xlsx
+++ b/Paramete Llist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799E046D-8963-4904-96BF-A3582BE8FE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B693BC-25CD-4ED9-990F-913C2F34BAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DJI" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>DJI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>MSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,17 +141,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -426,109 +428,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B2" s="1">
         <v>2019</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>80</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>5.1098672884108897E-6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>6.2509605791929404E-4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>4.9751242999999997E-3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>128</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>80</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>1E-3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>50</v>
       </c>
       <c r="K2" s="2">
         <v>50</v>
       </c>
       <c r="L2" s="2">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
         <v>30</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>54.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0866147022170401E-5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.5149769525076097E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.9751242999999997E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>128</v>
+      </c>
+      <c r="I3" s="1">
+        <v>80</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1">
+        <v>70</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1">
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>

--- a/Paramete Llist.xlsx
+++ b/Paramete Llist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B693BC-25CD-4ED9-990F-913C2F34BAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD425D-6C71-4DC6-A329-4F514C86687C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>DJI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>GSPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,11 +133,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -141,7 +142,27 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -428,15 +449,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -446,46 +469,46 @@
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -502,40 +525,40 @@
       <c r="D2" s="1">
         <v>5.1098672884108897E-6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>6.2509605791929404E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>4.9751242999999997E-3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>128</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>80</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>50</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>50</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>30</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>2</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>54.3</v>
       </c>
     </row>
@@ -587,6 +610,56 @@
       </c>
       <c r="P3" s="1">
         <v>10.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.7632597721094498E-6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.3100159074275299E-4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0256411E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1">
+        <v>80</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="1">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1">
+        <v>70</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1">
+        <v>43.16</v>
       </c>
     </row>
   </sheetData>

--- a/Paramete Llist.xlsx
+++ b/Paramete Llist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD425D-6C71-4DC6-A329-4F514C86687C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223A23B4-8BBE-4CC1-B87C-8BB5EA791D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>DJI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>HIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N225</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,38 +146,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -449,17 +422,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -660,6 +644,106 @@
       </c>
       <c r="P4" s="1">
         <v>43.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.0570810193021299E-6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.7994342497549902E-4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="1">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1">
+        <v>70</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1">
+        <v>129.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="1">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5699699288234099E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.20000000298023199</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.2977278120815701E-4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>128</v>
+      </c>
+      <c r="I6" s="1">
+        <v>80</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1">
+        <v>129.47</v>
       </c>
     </row>
   </sheetData>

--- a/Paramete Llist.xlsx
+++ b/Paramete Llist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223A23B4-8BBE-4CC1-B87C-8BB5EA791D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D5D5B-2084-4B15-8B78-FDEBA414A263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DJI" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>DJI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>N225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +158,68 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -422,328 +495,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>2019</v>
       </c>
-      <c r="C2" s="1">
-        <v>80</v>
-      </c>
       <c r="D2" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1">
         <v>5.1098672884108897E-6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>6.2509605791929404E-4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>4.9751242999999997E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>128</v>
       </c>
-      <c r="I2" s="1">
-        <v>80</v>
-      </c>
       <c r="J2" s="1">
+        <v>80</v>
+      </c>
+      <c r="K2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="K2" s="1">
-        <v>50</v>
-      </c>
       <c r="L2" s="1">
         <v>50</v>
       </c>
       <c r="M2" s="1">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1">
         <v>30</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>54.3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>2019</v>
       </c>
-      <c r="C3" s="1">
-        <v>80</v>
-      </c>
       <c r="D3" s="1">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1">
         <v>1.0866147022170401E-5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>3.5149769525076097E-4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>4.9751242999999997E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>128</v>
       </c>
-      <c r="I3" s="1">
-        <v>80</v>
-      </c>
       <c r="J3" s="1">
+        <v>80</v>
+      </c>
+      <c r="K3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="K3" s="1">
-        <v>50</v>
-      </c>
       <c r="L3" s="1">
         <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N3" s="1">
+        <v>70</v>
+      </c>
+      <c r="O3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>10.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>2019</v>
       </c>
-      <c r="C4" s="1">
-        <v>80</v>
-      </c>
       <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1">
         <v>2.7632597721094498E-6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2.3100159074275299E-4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1.0256411E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>128</v>
       </c>
-      <c r="I4" s="1">
-        <v>80</v>
-      </c>
       <c r="J4" s="1">
+        <v>80</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.01</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>30</v>
       </c>
-      <c r="L4" s="1">
-        <v>50</v>
-      </c>
       <c r="M4" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N4" s="1">
+        <v>70</v>
+      </c>
+      <c r="O4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>43.16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>2019</v>
       </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
       <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
         <v>2.0570810193021299E-6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>2.7994342497549902E-4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.01</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>64</v>
       </c>
-      <c r="I5" s="1">
-        <v>50</v>
-      </c>
       <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1">
         <v>0.01</v>
       </c>
-      <c r="K5" s="1">
-        <v>50</v>
-      </c>
       <c r="L5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M5" s="1">
         <v>70</v>
       </c>
       <c r="N5" s="1">
+        <v>70</v>
+      </c>
+      <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>129.53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.6185583919868801E-5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.1406037226618401E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.1813470000000002E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1">
+        <v>80</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="1">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>236.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="1">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.2966686376312201E-6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.3851031194999295E-5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.8543689999999999E-3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1">
+        <v>80</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1">
+        <v>70</v>
+      </c>
+      <c r="N7" s="1">
+        <v>70</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.7250332499970597E-6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.5365058944438501E-4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.8543689999999999E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1">
+        <v>80</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>166.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C9" s="1">
         <v>2018</v>
       </c>
-      <c r="C6" s="1">
-        <v>80</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.5699699288234099E-3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.3142793613951599E-4</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.20000000298023199</v>
       </c>
-      <c r="F6" s="1">
-        <v>4.2977278120815701E-4</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G9" s="1">
+        <v>2.0160063053481199E-4</v>
+      </c>
+      <c r="H9" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I9" s="1">
         <v>128</v>
       </c>
-      <c r="I6" s="1">
-        <v>80</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J9" s="1">
+        <v>80</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L9" s="1">
         <v>30</v>
       </c>
-      <c r="L6" s="1">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="M9" s="1">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1">
+        <v>70</v>
+      </c>
+      <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="1">
-        <v>129.47</v>
+      <c r="Q9" s="1">
+        <v>186.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.6739281717454998E-6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.3216650266946201E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.9751242999999997E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>70</v>
+      </c>
+      <c r="M10" s="1">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.2560429535806101E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.61151617713686E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.0505050000000003E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>128</v>
+      </c>
+      <c r="J11" s="1">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1">
+        <v>70</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>51.07</v>
       </c>
     </row>
   </sheetData>

--- a/Paramete Llist.xlsx
+++ b/Paramete Llist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D5D5B-2084-4B15-8B78-FDEBA414A263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4B9F1-2DDD-41F5-BF77-8A574A380CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,6 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>MSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Year</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,12 +129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,77 +155,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -498,7 +446,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,13 +470,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -570,12 +518,12 @@
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -599,7 +547,7 @@
         <v>4.9751242999999997E-3</v>
       </c>
       <c r="I2" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1">
         <v>80</v>
@@ -608,30 +556,30 @@
         <v>1E-3</v>
       </c>
       <c r="L2" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="1">
-        <v>54.3</v>
+      <c r="Q2" s="2">
+        <v>44.91</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>2019</v>
@@ -661,13 +609,13 @@
         <v>1E-3</v>
       </c>
       <c r="L3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1">
         <v>50</v>
       </c>
       <c r="N3" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -675,16 +623,16 @@
       <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="1">
-        <v>10.6</v>
+      <c r="Q3" s="2">
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>2019</v>
@@ -734,10 +682,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>2019</v>
@@ -787,10 +735,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>2019</v>
@@ -840,7 +788,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -890,10 +838,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>2018</v>
@@ -943,10 +891,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>2018</v>
@@ -996,10 +944,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>2018</v>
@@ -1046,10 +994,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>2018</v>

--- a/Paramete Llist.xlsx
+++ b/Paramete Llist.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4B9F1-2DDD-41F5-BF77-8A574A380CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757913AE-B87A-463C-883A-D5D7B04EDEC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DJI" sheetId="1" r:id="rId1"/>
+    <sheet name="LSTM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -129,18 +129,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>2019</v>
@@ -628,97 +622,47 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="1">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.7632597721094498E-6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.3100159074275299E-4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.0256411E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>128</v>
-      </c>
-      <c r="J4" s="1">
-        <v>80</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="1">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1">
-        <v>70</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>43.16</v>
-      </c>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
-        <v>2.0570810193021299E-6</v>
+        <v>2.7632597721094498E-6</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2.7994342497549902E-4</v>
+        <v>2.3100159074275299E-4</v>
       </c>
       <c r="H5" s="1">
-        <v>0.01</v>
+        <v>1.0256411E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="J5" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1">
         <v>0.01</v>
       </c>
       <c r="L5" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1">
         <v>70</v>
@@ -730,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="1">
-        <v>129.53</v>
+        <v>43.16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -738,43 +682,43 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>2019</v>
       </c>
       <c r="D6" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1">
-        <v>2.6185583919868801E-5</v>
+        <v>2.0570810193021299E-6</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1.1406037226618401E-3</v>
+        <v>2.7994342497549902E-4</v>
       </c>
       <c r="H6" s="1">
-        <v>5.1813470000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="1">
         <v>64</v>
       </c>
       <c r="J6" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1">
         <v>0.01</v>
       </c>
       <c r="L6" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O6" s="1">
         <v>2</v>
@@ -783,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="Q6" s="1">
-        <v>236.22</v>
+        <v>129.53</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -791,25 +735,25 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
       </c>
       <c r="E7" s="1">
-        <v>3.2966686376312201E-6</v>
+        <v>2.6185583919868801E-5</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>9.3851031194999295E-5</v>
+        <v>1.1406037226618401E-3</v>
       </c>
       <c r="H7" s="1">
-        <v>4.8543689999999999E-3</v>
+        <v>5.1813470000000002E-3</v>
       </c>
       <c r="I7" s="1">
         <v>64</v>
@@ -818,22 +762,25 @@
         <v>80</v>
       </c>
       <c r="K7" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L7" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>236.22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -841,7 +788,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>2018</v>
@@ -850,13 +797,13 @@
         <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>4.7250332499970597E-6</v>
+        <v>3.2966686376312201E-6</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1.5365058944438501E-4</v>
+        <v>9.3851031194999295E-5</v>
       </c>
       <c r="H8" s="1">
         <v>4.8543689999999999E-3</v>
@@ -877,16 +824,13 @@
         <v>70</v>
       </c>
       <c r="N8" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>166.02</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -894,7 +838,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>2018</v>
@@ -903,19 +847,19 @@
         <v>80</v>
       </c>
       <c r="E9" s="1">
-        <v>1.3142793613951599E-4</v>
+        <v>4.7250332499970597E-6</v>
       </c>
       <c r="F9" s="1">
-        <v>0.20000000298023199</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>2.0160063053481199E-4</v>
+        <v>1.5365058944438501E-4</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8543689999999999E-3</v>
       </c>
       <c r="I9" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1">
         <v>80</v>
@@ -924,13 +868,13 @@
         <v>0.1</v>
       </c>
       <c r="L9" s="1">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1">
         <v>30</v>
-      </c>
-      <c r="M9" s="1">
-        <v>70</v>
-      </c>
-      <c r="N9" s="1">
-        <v>70</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -939,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="1">
-        <v>186.57</v>
+        <v>166.02</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -956,19 +900,19 @@
         <v>80</v>
       </c>
       <c r="E10" s="1">
-        <v>5.6739281717454998E-6</v>
+        <v>1.3142793613951599E-4</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>0.20000000298023199</v>
       </c>
       <c r="G10" s="1">
-        <v>1.3216650266946201E-4</v>
+        <v>2.0160063053481199E-4</v>
       </c>
       <c r="H10" s="1">
-        <v>4.9751242999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I10" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="J10" s="1">
         <v>80</v>
@@ -977,19 +921,22 @@
         <v>0.1</v>
       </c>
       <c r="L10" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>186.57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1003,37 +950,37 @@
         <v>2018</v>
       </c>
       <c r="D11" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
-        <v>3.2560429535806101E-3</v>
+        <v>5.6739281717454998E-6</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1.61151617713686E-3</v>
+        <v>1.3216650266946201E-4</v>
       </c>
       <c r="H11" s="1">
-        <v>5.0505050000000003E-3</v>
+        <v>4.9751242999999997E-3</v>
       </c>
       <c r="I11" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1">
         <v>0.1</v>
       </c>
       <c r="L11" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1">
         <v>50</v>
       </c>
       <c r="N11" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -1041,11 +988,64 @@
       <c r="P11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="1">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.2560429535806101E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.61151617713686E-3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.0505050000000003E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>128</v>
+      </c>
+      <c r="J12" s="1">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1">
+        <v>70</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="1">
         <v>51.07</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B12">
+    <sortCondition ref="B2:B12"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
